--- a/TextToSpeech/Resources/InputSamples/ExcelSampleAtbash.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleAtbash.xlsx
@@ -12,42 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>xlofnm0</t>
+    <t>Olivn rkhfn wloli hrg znvg</t>
   </si>
   <si>
-    <t>xlofnm1</t>
+    <t xml:space="preserve"> xlmhvxgvgfi zwrkrhxrmt vorg</t>
   </si>
   <si>
-    <t>xlofnm2</t>
+    <t xml:space="preserve"> hvw wl vrfhnlw gvnkli rmxrwrwfmg fg ozyliv vg wloliv nztmz zorjfz. Fg vmrn zw nrmrn evmrzn</t>
   </si>
   <si>
-    <t>ild1</t>
+    <t xml:space="preserve"> jfrh mlhgifw vcvixrgzgrlm fooznxl ozylirh mrhr fg zorjfrk vc vz xlnnlwl xlmhvjfzg. Wfrh zfgv rifiv wloli rm ivkivsvmwvirg rm elofkgzgv evorg vhhv xroofn wloliv vf uftrzg mfooz kzirzgfi. Vcxvkgvfi hrmg lxxzvxzg xfkrwzgzg mlm kilrwvmg</t>
   </si>
   <si>
-    <t>ild1 xlo1</t>
-  </si>
-  <si>
-    <t>ild1 xlo2</t>
-  </si>
-  <si>
-    <t>ild2</t>
-  </si>
-  <si>
-    <t>ild2 xlo1</t>
-  </si>
-  <si>
-    <t>ild2 xlo2</t>
-  </si>
-  <si>
-    <t>ild3</t>
-  </si>
-  <si>
-    <t>ild3 xlo1</t>
-  </si>
-  <si>
-    <t>ild3 xlo2</t>
+    <t xml:space="preserve"> hfmg rm xfokz jfr luurxrz wvhvifmg nloorg zmrn rw vhg ozylifn.</t>
   </si>
 </sst>
 </file>
@@ -92,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,38 +87,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TextToSpeech/Resources/InputSamples/ExcelSampleAtbash.xlsx
+++ b/TextToSpeech/Resources/InputSamples/ExcelSampleAtbash.xlsx
@@ -12,21 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Olivn rkhfn wloli hrg znvg</t>
+    <t>xlofnm0</t>
   </si>
   <si>
-    <t xml:space="preserve"> xlmhvxgvgfi zwrkrhxrmt vorg</t>
+    <t>xlofnm1</t>
   </si>
   <si>
-    <t xml:space="preserve"> hvw wl vrfhnlw gvnkli rmxrwrwfmg fg ozyliv vg wloliv nztmz zorjfz. Fg vmrn zw nrmrn evmrzn</t>
+    <t>xlofnm2</t>
   </si>
   <si>
-    <t xml:space="preserve"> jfrh mlhgifw vcvixrgzgrlm fooznxl ozylirh mrhr fg zorjfrk vc vz xlnnlwl xlmhvjfzg. Wfrh zfgv rifiv wloli rm ivkivsvmwvirg rm elofkgzgv evorg vhhv xroofn wloliv vf uftrzg mfooz kzirzgfi. Vcxvkgvfi hrmg lxxzvxzg xfkrwzgzg mlm kilrwvmg</t>
+    <t>ild1</t>
   </si>
   <si>
-    <t xml:space="preserve"> hfmg rm xfokz jfr luurxrz wvhvifmg nloorg zmrn rw vhg ozylifn.</t>
+    <t>ild1 xlo1</t>
+  </si>
+  <si>
+    <t>ild1 xlo2</t>
+  </si>
+  <si>
+    <t>ild2</t>
+  </si>
+  <si>
+    <t>ild2 xlo1</t>
+  </si>
+  <si>
+    <t>ild2 xlo2</t>
+  </si>
+  <si>
+    <t>ild3</t>
+  </si>
+  <si>
+    <t>ild3 xlo1</t>
+  </si>
+  <si>
+    <t>ild3 xlo2</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,11 +108,38 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
